--- a/data/raw/20201007_RRT_Acer/PAM/20201007dii_Acer.xlsx
+++ b/data/raw/20201007_RRT_Acer/PAM/20201007dii_Acer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jrcunning/Documents/CRII_Oct_2020/CBASS files/pamdata/20201007_Acer_RRT/20201007/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jrcunning/Projects/CBASS_FL_Acer/data/raw/20201007_RRT_Acer/PAM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93C32468-C649-ED4B-95C5-5CEE23211660}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D986AC4-C2D8-224E-AA9E-DDD07A42E7C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="460" windowWidth="12300" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-33220" yWindow="-460" windowWidth="19340" windowHeight="16920" firstSheet="6" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S1" sheetId="3" r:id="rId1"/>
@@ -127,9 +127,6 @@
     <t>Acer 123</t>
   </si>
   <si>
-    <t>ML-5</t>
-  </si>
-  <si>
     <t>P2</t>
   </si>
   <si>
@@ -184,9 +181,6 @@
     <t>U-93</t>
   </si>
   <si>
-    <t>FM-19 (C)</t>
-  </si>
-  <si>
     <t>M-5</t>
   </si>
   <si>
@@ -236,6 +230,12 @@
   </si>
   <si>
     <t>S8</t>
+  </si>
+  <si>
+    <t>FM-6 (C)</t>
+  </si>
+  <si>
+    <t>ML-50</t>
   </si>
 </sst>
 </file>
@@ -1092,8 +1092,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1126,10 +1126,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C2">
         <v>10150</v>
@@ -1152,10 +1152,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C3">
         <v>10151</v>
@@ -1178,10 +1178,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C4">
         <v>10152</v>
@@ -1204,10 +1204,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C5">
         <v>10153</v>
@@ -1230,10 +1230,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C6">
         <v>10156</v>
@@ -1256,10 +1256,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7">
         <v>10157</v>
@@ -1282,10 +1282,10 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C8">
         <v>10158</v>
@@ -1308,10 +1308,10 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C9">
         <v>10159</v>
@@ -1334,10 +1334,10 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C10">
         <v>10161</v>
@@ -1360,10 +1360,10 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C11">
         <v>10162</v>
@@ -1386,10 +1386,10 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C12">
         <v>10163</v>
@@ -1412,10 +1412,10 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C13">
         <v>10164</v>
@@ -1438,10 +1438,10 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C14">
         <v>10166</v>
@@ -1464,10 +1464,10 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C15">
         <v>10167</v>
@@ -1490,10 +1490,10 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C16">
         <v>10168</v>
@@ -1516,10 +1516,10 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C17">
         <v>10169</v>
@@ -1542,10 +1542,10 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C18">
         <v>10171</v>
@@ -1568,10 +1568,10 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C19">
         <v>10172</v>
@@ -1594,10 +1594,10 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C20">
         <v>10173</v>
@@ -1620,10 +1620,10 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C21">
         <v>10174</v>
@@ -1646,10 +1646,10 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C22">
         <v>10175</v>
@@ -1672,10 +1672,10 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C23">
         <v>10176</v>
@@ -1698,10 +1698,10 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="C24">
         <v>10177</v>
@@ -1724,10 +1724,10 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="C25">
         <v>10178</v>
@@ -1750,10 +1750,10 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C26">
         <v>10179</v>
@@ -1776,10 +1776,10 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C27">
         <v>10180</v>
@@ -1802,10 +1802,10 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C28">
         <v>10181</v>
@@ -1828,10 +1828,10 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C29">
         <v>10184</v>
@@ -1854,10 +1854,10 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C30">
         <v>10185</v>
@@ -1880,10 +1880,10 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C31">
         <v>10186</v>
@@ -1906,10 +1906,10 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C32">
         <v>10188</v>
@@ -1932,10 +1932,10 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C33">
         <v>10189</v>
@@ -1958,10 +1958,10 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="C34">
         <v>10190</v>
@@ -1984,10 +1984,10 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="C35">
         <v>10191</v>
@@ -2010,10 +2010,10 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C36">
         <v>10192</v>
@@ -2036,10 +2036,10 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C37">
         <v>10193</v>
@@ -2062,10 +2062,10 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C38">
         <v>10194</v>
@@ -2088,10 +2088,10 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C39">
         <v>10195</v>
@@ -2114,10 +2114,10 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C40">
         <v>10197</v>
@@ -2140,10 +2140,10 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C41">
         <v>10199</v>
@@ -2166,10 +2166,10 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C42">
         <v>10200</v>
@@ -2192,10 +2192,10 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C43">
         <v>10201</v>
@@ -2227,7 +2227,7 @@
   <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="H45" sqref="H45"/>
+      <selection activeCell="B42" sqref="B42:B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2260,7 +2260,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
@@ -2286,7 +2286,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
@@ -2312,7 +2312,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
@@ -2338,7 +2338,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
@@ -2364,7 +2364,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
@@ -2390,7 +2390,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
@@ -2416,7 +2416,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -2442,7 +2442,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -2468,7 +2468,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10" t="s">
         <v>27</v>
@@ -2494,7 +2494,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B11" t="s">
         <v>27</v>
@@ -2520,7 +2520,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -2546,7 +2546,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -2572,7 +2572,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
@@ -2598,7 +2598,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s">
         <v>13</v>
@@ -2624,7 +2624,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
         <v>14</v>
@@ -2650,7 +2650,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
         <v>14</v>
@@ -2676,7 +2676,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B18" t="s">
         <v>15</v>
@@ -2702,7 +2702,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B19" t="s">
         <v>15</v>
@@ -2728,7 +2728,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B20" t="s">
         <v>16</v>
@@ -2754,7 +2754,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B21" t="s">
         <v>16</v>
@@ -2780,7 +2780,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B22" t="s">
         <v>17</v>
@@ -2806,7 +2806,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B23" t="s">
         <v>17</v>
@@ -2832,7 +2832,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B24" t="s">
         <v>18</v>
@@ -2858,7 +2858,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B25" t="s">
         <v>18</v>
@@ -2884,7 +2884,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B26" t="s">
         <v>25</v>
@@ -2910,7 +2910,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B27" t="s">
         <v>25</v>
@@ -2936,7 +2936,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B28" t="s">
         <v>19</v>
@@ -2962,7 +2962,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B29" t="s">
         <v>19</v>
@@ -2988,7 +2988,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B30" t="s">
         <v>20</v>
@@ -3014,7 +3014,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
         <v>20</v>
@@ -3040,7 +3040,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" t="s">
         <v>21</v>
@@ -3066,7 +3066,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B33" t="s">
         <v>21</v>
@@ -3092,7 +3092,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B34" t="s">
         <v>22</v>
@@ -3118,7 +3118,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B35" t="s">
         <v>22</v>
@@ -3144,7 +3144,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B36" t="s">
         <v>28</v>
@@ -3170,7 +3170,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B37" t="s">
         <v>28</v>
@@ -3196,7 +3196,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B38" t="s">
         <v>29</v>
@@ -3222,7 +3222,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B39" t="s">
         <v>29</v>
@@ -3248,7 +3248,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B40" t="s">
         <v>23</v>
@@ -3274,7 +3274,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B41" t="s">
         <v>23</v>
@@ -3300,10 +3300,10 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B42" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="C42">
         <v>10401</v>
@@ -3326,10 +3326,10 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B43" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="C43">
         <v>10402</v>
@@ -3361,7 +3361,7 @@
   <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+      <selection activeCell="B42" sqref="B42:B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3394,7 +3394,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>10</v>
@@ -3420,7 +3420,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>10</v>
@@ -3446,7 +3446,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>11</v>
@@ -3472,7 +3472,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>11</v>
@@ -3498,7 +3498,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>12</v>
@@ -3524,7 +3524,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>12</v>
@@ -3550,7 +3550,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>26</v>
@@ -3576,7 +3576,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>26</v>
@@ -3602,7 +3602,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>27</v>
@@ -3628,7 +3628,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>27</v>
@@ -3654,7 +3654,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>24</v>
@@ -3680,7 +3680,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>24</v>
@@ -3706,7 +3706,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>13</v>
@@ -3732,7 +3732,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>13</v>
@@ -3758,7 +3758,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>14</v>
@@ -3784,7 +3784,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>14</v>
@@ -3810,7 +3810,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>15</v>
@@ -3836,7 +3836,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>15</v>
@@ -3862,7 +3862,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>16</v>
@@ -3888,7 +3888,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>16</v>
@@ -3914,7 +3914,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>17</v>
@@ -3940,7 +3940,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>17</v>
@@ -3966,7 +3966,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>18</v>
@@ -3992,7 +3992,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>18</v>
@@ -4018,7 +4018,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>25</v>
@@ -4044,7 +4044,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>25</v>
@@ -4070,7 +4070,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>19</v>
@@ -4096,7 +4096,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>19</v>
@@ -4122,7 +4122,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>20</v>
@@ -4148,7 +4148,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>20</v>
@@ -4174,7 +4174,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>21</v>
@@ -4200,7 +4200,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>21</v>
@@ -4226,7 +4226,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>22</v>
@@ -4252,7 +4252,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>22</v>
@@ -4278,7 +4278,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>28</v>
@@ -4304,7 +4304,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>28</v>
@@ -4330,7 +4330,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>29</v>
@@ -4356,7 +4356,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>29</v>
@@ -4382,7 +4382,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>23</v>
@@ -4408,7 +4408,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>23</v>
@@ -4434,10 +4434,10 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
+      </c>
+      <c r="B42" t="s">
+        <v>66</v>
       </c>
       <c r="C42">
         <v>10245</v>
@@ -4460,10 +4460,10 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
+      </c>
+      <c r="B43" t="s">
+        <v>66</v>
       </c>
       <c r="C43">
         <v>10246</v>
@@ -4495,7 +4495,7 @@
   <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="B42" sqref="B42:B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4528,7 +4528,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>10</v>
@@ -4554,7 +4554,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>10</v>
@@ -4580,7 +4580,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>11</v>
@@ -4606,7 +4606,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>11</v>
@@ -4632,7 +4632,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>12</v>
@@ -4658,7 +4658,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>12</v>
@@ -4684,7 +4684,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>26</v>
@@ -4710,7 +4710,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>26</v>
@@ -4736,7 +4736,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>27</v>
@@ -4762,7 +4762,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>27</v>
@@ -4788,7 +4788,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>24</v>
@@ -4814,7 +4814,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>24</v>
@@ -4840,7 +4840,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>13</v>
@@ -4866,7 +4866,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>13</v>
@@ -4892,7 +4892,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>14</v>
@@ -4918,7 +4918,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>14</v>
@@ -4944,7 +4944,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>15</v>
@@ -4970,7 +4970,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>15</v>
@@ -4996,7 +4996,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>16</v>
@@ -5022,7 +5022,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>16</v>
@@ -5048,7 +5048,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>17</v>
@@ -5074,7 +5074,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>17</v>
@@ -5100,7 +5100,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>18</v>
@@ -5126,7 +5126,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>18</v>
@@ -5152,7 +5152,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>25</v>
@@ -5178,7 +5178,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>25</v>
@@ -5204,7 +5204,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>19</v>
@@ -5230,7 +5230,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>19</v>
@@ -5256,7 +5256,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>20</v>
@@ -5282,7 +5282,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>20</v>
@@ -5308,7 +5308,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>21</v>
@@ -5334,7 +5334,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>21</v>
@@ -5360,7 +5360,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>22</v>
@@ -5386,7 +5386,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>22</v>
@@ -5412,7 +5412,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>28</v>
@@ -5438,7 +5438,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>28</v>
@@ -5464,7 +5464,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>29</v>
@@ -5490,7 +5490,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>29</v>
@@ -5516,7 +5516,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>23</v>
@@ -5542,7 +5542,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>23</v>
@@ -5568,10 +5568,10 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
+      </c>
+      <c r="B42" t="s">
+        <v>66</v>
       </c>
       <c r="C42">
         <v>10147</v>
@@ -5594,10 +5594,10 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
+      </c>
+      <c r="B43" t="s">
+        <v>66</v>
       </c>
       <c r="C43">
         <v>10148</v>
@@ -5628,8 +5628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42:B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5662,7 +5662,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>10</v>
@@ -5688,7 +5688,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>10</v>
@@ -5714,7 +5714,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>11</v>
@@ -5740,7 +5740,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>11</v>
@@ -5766,7 +5766,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>12</v>
@@ -5792,7 +5792,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>12</v>
@@ -5818,7 +5818,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>26</v>
@@ -5844,7 +5844,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>26</v>
@@ -5870,7 +5870,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>27</v>
@@ -5896,7 +5896,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>27</v>
@@ -5922,7 +5922,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>24</v>
@@ -5948,7 +5948,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>24</v>
@@ -5974,7 +5974,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>13</v>
@@ -6000,7 +6000,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>13</v>
@@ -6026,7 +6026,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>14</v>
@@ -6052,7 +6052,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>14</v>
@@ -6078,7 +6078,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>15</v>
@@ -6104,7 +6104,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>15</v>
@@ -6130,7 +6130,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>16</v>
@@ -6156,7 +6156,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>16</v>
@@ -6182,7 +6182,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>17</v>
@@ -6208,7 +6208,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>17</v>
@@ -6234,7 +6234,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>18</v>
@@ -6260,7 +6260,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>18</v>
@@ -6286,7 +6286,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>25</v>
@@ -6312,7 +6312,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>25</v>
@@ -6338,7 +6338,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>19</v>
@@ -6364,7 +6364,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>19</v>
@@ -6390,7 +6390,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>20</v>
@@ -6416,7 +6416,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>20</v>
@@ -6442,7 +6442,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>21</v>
@@ -6468,7 +6468,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>21</v>
@@ -6494,7 +6494,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>22</v>
@@ -6520,7 +6520,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>22</v>
@@ -6546,7 +6546,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>28</v>
@@ -6572,7 +6572,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>28</v>
@@ -6598,7 +6598,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>29</v>
@@ -6624,7 +6624,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>29</v>
@@ -6650,7 +6650,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>23</v>
@@ -6676,7 +6676,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>23</v>
@@ -6702,10 +6702,10 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="B42" t="s">
+        <v>66</v>
       </c>
       <c r="C42">
         <v>10784</v>
@@ -6728,10 +6728,10 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="B43" t="s">
+        <v>66</v>
       </c>
       <c r="C43">
         <v>10785</v>
@@ -6763,7 +6763,7 @@
   <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41:F42"/>
+      <selection activeCell="B42" sqref="B42:B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6796,7 +6796,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>10</v>
@@ -6822,7 +6822,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>10</v>
@@ -6848,7 +6848,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>11</v>
@@ -6874,7 +6874,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>11</v>
@@ -6900,7 +6900,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>12</v>
@@ -6926,7 +6926,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>12</v>
@@ -6952,7 +6952,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>26</v>
@@ -6978,7 +6978,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>26</v>
@@ -7004,7 +7004,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>27</v>
@@ -7030,7 +7030,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>27</v>
@@ -7056,7 +7056,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>24</v>
@@ -7082,7 +7082,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>24</v>
@@ -7108,7 +7108,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>13</v>
@@ -7134,7 +7134,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>13</v>
@@ -7160,7 +7160,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>14</v>
@@ -7186,7 +7186,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>14</v>
@@ -7212,7 +7212,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>15</v>
@@ -7238,7 +7238,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>15</v>
@@ -7264,7 +7264,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>16</v>
@@ -7290,7 +7290,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>16</v>
@@ -7316,7 +7316,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>17</v>
@@ -7342,7 +7342,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>17</v>
@@ -7368,7 +7368,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>18</v>
@@ -7394,7 +7394,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>18</v>
@@ -7420,7 +7420,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>25</v>
@@ -7446,7 +7446,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>25</v>
@@ -7472,7 +7472,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>19</v>
@@ -7498,7 +7498,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>19</v>
@@ -7524,7 +7524,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>20</v>
@@ -7550,7 +7550,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>20</v>
@@ -7576,7 +7576,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>21</v>
@@ -7602,7 +7602,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>21</v>
@@ -7628,7 +7628,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>22</v>
@@ -7654,7 +7654,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>22</v>
@@ -7680,7 +7680,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>28</v>
@@ -7706,7 +7706,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>28</v>
@@ -7732,7 +7732,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>29</v>
@@ -7758,7 +7758,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>29</v>
@@ -7784,7 +7784,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>23</v>
@@ -7810,7 +7810,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>23</v>
@@ -7836,10 +7836,10 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
+      </c>
+      <c r="B42" t="s">
+        <v>66</v>
       </c>
       <c r="C42">
         <v>10518</v>
@@ -7862,10 +7862,10 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
+      </c>
+      <c r="B43" t="s">
+        <v>66</v>
       </c>
       <c r="C43">
         <v>10519</v>
@@ -7896,8 +7896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42:B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7930,7 +7930,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>10</v>
@@ -7956,7 +7956,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>10</v>
@@ -7982,7 +7982,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>11</v>
@@ -8008,7 +8008,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>11</v>
@@ -8034,7 +8034,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>12</v>
@@ -8060,7 +8060,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>12</v>
@@ -8086,7 +8086,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>26</v>
@@ -8112,7 +8112,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>26</v>
@@ -8138,7 +8138,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>27</v>
@@ -8164,7 +8164,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>27</v>
@@ -8190,7 +8190,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>24</v>
@@ -8216,7 +8216,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>24</v>
@@ -8242,7 +8242,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>13</v>
@@ -8268,7 +8268,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>13</v>
@@ -8294,7 +8294,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>14</v>
@@ -8320,7 +8320,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>14</v>
@@ -8346,7 +8346,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>15</v>
@@ -8372,7 +8372,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>15</v>
@@ -8398,7 +8398,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>16</v>
@@ -8406,7 +8406,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>16</v>
@@ -8414,7 +8414,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>17</v>
@@ -8440,7 +8440,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>17</v>
@@ -8466,7 +8466,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>18</v>
@@ -8492,7 +8492,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>18</v>
@@ -8518,7 +8518,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>25</v>
@@ -8544,7 +8544,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>25</v>
@@ -8570,7 +8570,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>19</v>
@@ -8596,7 +8596,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>19</v>
@@ -8622,7 +8622,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>20</v>
@@ -8648,7 +8648,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>20</v>
@@ -8674,7 +8674,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>21</v>
@@ -8700,7 +8700,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>21</v>
@@ -8726,7 +8726,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>22</v>
@@ -8752,7 +8752,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>22</v>
@@ -8778,7 +8778,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>28</v>
@@ -8804,7 +8804,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>28</v>
@@ -8830,7 +8830,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>29</v>
@@ -8856,7 +8856,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>29</v>
@@ -8882,7 +8882,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>23</v>
@@ -8908,7 +8908,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>23</v>
@@ -8934,10 +8934,10 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
+      </c>
+      <c r="B42" t="s">
+        <v>66</v>
       </c>
       <c r="C42">
         <v>10696</v>
@@ -8960,10 +8960,10 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
+      </c>
+      <c r="B43" t="s">
+        <v>66</v>
       </c>
       <c r="C43">
         <v>10697</v>
@@ -8994,8 +8994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42:B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9028,7 +9028,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>10</v>
@@ -9054,7 +9054,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>10</v>
@@ -9080,7 +9080,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>11</v>
@@ -9106,7 +9106,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>11</v>
@@ -9132,7 +9132,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>12</v>
@@ -9158,7 +9158,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>12</v>
@@ -9184,7 +9184,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>26</v>
@@ -9210,7 +9210,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>26</v>
@@ -9236,7 +9236,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>27</v>
@@ -9262,7 +9262,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>27</v>
@@ -9288,7 +9288,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>24</v>
@@ -9314,7 +9314,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>24</v>
@@ -9340,7 +9340,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>13</v>
@@ -9366,7 +9366,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>13</v>
@@ -9392,7 +9392,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>14</v>
@@ -9418,7 +9418,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>14</v>
@@ -9444,7 +9444,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>15</v>
@@ -9470,7 +9470,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>15</v>
@@ -9496,7 +9496,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>16</v>
@@ -9522,7 +9522,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>16</v>
@@ -9548,7 +9548,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>17</v>
@@ -9574,7 +9574,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>17</v>
@@ -9600,7 +9600,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>18</v>
@@ -9626,7 +9626,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>18</v>
@@ -9652,7 +9652,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>25</v>
@@ -9678,7 +9678,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>25</v>
@@ -9704,7 +9704,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>19</v>
@@ -9730,7 +9730,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>19</v>
@@ -9756,7 +9756,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>20</v>
@@ -9782,7 +9782,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>20</v>
@@ -9808,7 +9808,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>21</v>
@@ -9834,7 +9834,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>21</v>
@@ -9860,7 +9860,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>22</v>
@@ -9886,7 +9886,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>22</v>
@@ -9912,7 +9912,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>28</v>
@@ -9938,7 +9938,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>28</v>
@@ -9964,7 +9964,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>29</v>
@@ -9990,7 +9990,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>29</v>
@@ -10016,7 +10016,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>23</v>
@@ -10042,7 +10042,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>23</v>
@@ -10068,10 +10068,10 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
+      </c>
+      <c r="B42" t="s">
+        <v>66</v>
       </c>
       <c r="C42">
         <v>10826</v>
@@ -10094,10 +10094,10 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
+      </c>
+      <c r="B43" t="s">
+        <v>66</v>
       </c>
       <c r="C43">
         <v>10827</v>
@@ -10128,8 +10128,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="E27" sqref="A1:H43"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10162,10 +10162,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C2">
         <v>10247</v>
@@ -10188,10 +10188,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C3">
         <v>10249</v>
@@ -10214,10 +10214,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C4">
         <v>10250</v>
@@ -10240,10 +10240,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C5">
         <v>10251</v>
@@ -10266,10 +10266,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C6">
         <v>10252</v>
@@ -10292,10 +10292,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7">
         <v>10253</v>
@@ -10318,10 +10318,10 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C8">
         <v>10255</v>
@@ -10344,10 +10344,10 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C9">
         <v>10256</v>
@@ -10370,10 +10370,10 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C10">
         <v>10257</v>
@@ -10396,10 +10396,10 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C11">
         <v>10258</v>
@@ -10422,10 +10422,10 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C12">
         <v>10259</v>
@@ -10448,10 +10448,10 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C13">
         <v>10260</v>
@@ -10474,10 +10474,10 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C14">
         <v>10261</v>
@@ -10500,10 +10500,10 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C15">
         <v>10262</v>
@@ -10526,10 +10526,10 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C16">
         <v>10263</v>
@@ -10552,10 +10552,10 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C17">
         <v>10264</v>
@@ -10578,10 +10578,10 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C18">
         <v>10265</v>
@@ -10604,10 +10604,10 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C19">
         <v>10266</v>
@@ -10630,10 +10630,10 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C20">
         <v>10267</v>
@@ -10656,10 +10656,10 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C21">
         <v>10268</v>
@@ -10682,10 +10682,10 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C22">
         <v>10269</v>
@@ -10708,10 +10708,10 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C23">
         <v>10270</v>
@@ -10734,10 +10734,10 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="C24">
         <v>10271</v>
@@ -10760,10 +10760,10 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="C25">
         <v>10273</v>
@@ -10786,10 +10786,10 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C26">
         <v>10274</v>
@@ -10812,10 +10812,10 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C27">
         <v>10275</v>
@@ -10838,10 +10838,10 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C28">
         <v>10276</v>
@@ -10864,10 +10864,10 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C29">
         <v>10277</v>
@@ -10890,10 +10890,10 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C30">
         <v>10278</v>
@@ -10916,10 +10916,10 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C31">
         <v>10279</v>
@@ -10942,10 +10942,10 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C32">
         <v>10280</v>
@@ -10968,10 +10968,10 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C33">
         <v>10281</v>
@@ -10994,10 +10994,10 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C34">
         <v>10282</v>
@@ -11020,10 +11020,10 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C35">
         <v>10283</v>
@@ -11046,10 +11046,10 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C36">
         <v>10284</v>
@@ -11072,10 +11072,10 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C37">
         <v>10285</v>
@@ -11098,10 +11098,10 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C38">
         <v>10286</v>
@@ -11124,10 +11124,10 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C39">
         <v>10287</v>
@@ -11150,10 +11150,10 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C40">
         <v>10288</v>
@@ -11176,10 +11176,10 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C41">
         <v>10289</v>
@@ -11202,10 +11202,10 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C42">
         <v>10290</v>
@@ -11228,10 +11228,10 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C43">
         <v>10291</v>
@@ -11263,7 +11263,7 @@
   <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11296,10 +11296,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C2">
         <v>10292</v>
@@ -11322,10 +11322,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C3">
         <v>10294</v>
@@ -11348,10 +11348,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C4">
         <v>10295</v>
@@ -11374,10 +11374,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C5">
         <v>10296</v>
@@ -11400,10 +11400,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C6">
         <v>10297</v>
@@ -11426,10 +11426,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7">
         <v>10298</v>
@@ -11452,10 +11452,10 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C8">
         <v>10299</v>
@@ -11478,10 +11478,10 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C9">
         <v>10300</v>
@@ -11504,10 +11504,10 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C10">
         <v>10301</v>
@@ -11530,10 +11530,10 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C11">
         <v>10302</v>
@@ -11556,10 +11556,10 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C12">
         <v>10303</v>
@@ -11582,10 +11582,10 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C13">
         <v>10304</v>
@@ -11608,10 +11608,10 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C14">
         <v>10305</v>
@@ -11634,10 +11634,10 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C15">
         <v>10306</v>
@@ -11660,10 +11660,10 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C16">
         <v>10307</v>
@@ -11686,10 +11686,10 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C17">
         <v>10308</v>
@@ -11712,10 +11712,10 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C18">
         <v>10309</v>
@@ -11738,10 +11738,10 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C19">
         <v>10310</v>
@@ -11764,10 +11764,10 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C20">
         <v>10311</v>
@@ -11790,10 +11790,10 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C21">
         <v>10312</v>
@@ -11816,10 +11816,10 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C22">
         <v>10313</v>
@@ -11842,10 +11842,10 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C23">
         <v>10314</v>
@@ -11868,10 +11868,10 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="C24">
         <v>10315</v>
@@ -11894,10 +11894,10 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="C25">
         <v>10316</v>
@@ -11920,10 +11920,10 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C26">
         <v>10317</v>
@@ -11946,10 +11946,10 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C27">
         <v>10318</v>
@@ -11972,10 +11972,10 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C28">
         <v>10319</v>
@@ -11998,10 +11998,10 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C29">
         <v>10320</v>
@@ -12024,10 +12024,10 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C30">
         <v>10321</v>
@@ -12050,10 +12050,10 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C31">
         <v>10322</v>
@@ -12076,10 +12076,10 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C32">
         <v>10323</v>
@@ -12102,10 +12102,10 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C33">
         <v>10324</v>
@@ -12128,10 +12128,10 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C34">
         <v>10325</v>
@@ -12154,10 +12154,10 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C35">
         <v>10326</v>
@@ -12180,10 +12180,10 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C36">
         <v>10327</v>
@@ -12206,10 +12206,10 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C37">
         <v>10328</v>
@@ -12232,10 +12232,10 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C38">
         <v>10329</v>
@@ -12258,10 +12258,10 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C39">
         <v>10330</v>
@@ -12284,10 +12284,10 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C40">
         <v>10331</v>
@@ -12310,10 +12310,10 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C41">
         <v>10332</v>
@@ -12336,10 +12336,10 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C42">
         <v>10333</v>
@@ -12362,10 +12362,10 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C43">
         <v>10334</v>
@@ -12396,8 +12396,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12430,10 +12430,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C2">
         <v>10520</v>
@@ -12456,10 +12456,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C3">
         <v>10521</v>
@@ -12482,10 +12482,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C4">
         <v>10522</v>
@@ -12508,10 +12508,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C5">
         <v>10523</v>
@@ -12534,10 +12534,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C6">
         <v>10524</v>
@@ -12560,10 +12560,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7">
         <v>10525</v>
@@ -12586,10 +12586,10 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C8">
         <v>10526</v>
@@ -12612,10 +12612,10 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C9">
         <v>10527</v>
@@ -12638,10 +12638,10 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C10">
         <v>10528</v>
@@ -12664,10 +12664,10 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C11">
         <v>10529</v>
@@ -12690,10 +12690,10 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C12">
         <v>10530</v>
@@ -12716,10 +12716,10 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C13">
         <v>10531</v>
@@ -12742,10 +12742,10 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C14">
         <v>10532</v>
@@ -12768,10 +12768,10 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C15">
         <v>10535</v>
@@ -12794,10 +12794,10 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C16">
         <v>10536</v>
@@ -12820,10 +12820,10 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C17">
         <v>10537</v>
@@ -12846,10 +12846,10 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C18">
         <v>10538</v>
@@ -12872,10 +12872,10 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C19">
         <v>10539</v>
@@ -12898,10 +12898,10 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C20">
         <v>10541</v>
@@ -12924,10 +12924,10 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C21">
         <v>10543</v>
@@ -12950,10 +12950,10 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C22">
         <v>10544</v>
@@ -12976,10 +12976,10 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C23">
         <v>10545</v>
@@ -13002,10 +13002,10 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="C24">
         <v>10546</v>
@@ -13028,10 +13028,10 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="C25">
         <v>10547</v>
@@ -13054,10 +13054,10 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C26">
         <v>10548</v>
@@ -13080,10 +13080,10 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C27">
         <v>10549</v>
@@ -13106,10 +13106,10 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C28">
         <v>10550</v>
@@ -13132,10 +13132,10 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C29">
         <v>10551</v>
@@ -13158,10 +13158,10 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C30">
         <v>10552</v>
@@ -13184,10 +13184,10 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C31">
         <v>10553</v>
@@ -13210,10 +13210,10 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C32">
         <v>10554</v>
@@ -13236,10 +13236,10 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C33">
         <v>10555</v>
@@ -13262,10 +13262,10 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C34">
         <v>10556</v>
@@ -13288,10 +13288,10 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C35">
         <v>10557</v>
@@ -13314,10 +13314,10 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C36">
         <v>10558</v>
@@ -13340,10 +13340,10 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C37">
         <v>10559</v>
@@ -13366,10 +13366,10 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C38">
         <v>10560</v>
@@ -13392,10 +13392,10 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C39">
         <v>10561</v>
@@ -13418,10 +13418,10 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C40">
         <v>10562</v>
@@ -13444,10 +13444,10 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C41">
         <v>10563</v>
@@ -13470,10 +13470,10 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C42">
         <v>10564</v>
@@ -13496,10 +13496,10 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C43">
         <v>10565</v>
@@ -13542,8 +13542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13576,10 +13576,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C2">
         <v>10698</v>
@@ -13602,10 +13602,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C3">
         <v>10699</v>
@@ -13628,10 +13628,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C4">
         <v>10700</v>
@@ -13654,10 +13654,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C5">
         <v>10701</v>
@@ -13680,10 +13680,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C6">
         <v>10702</v>
@@ -13706,10 +13706,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7">
         <v>10703</v>
@@ -13732,10 +13732,10 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C8">
         <v>10704</v>
@@ -13758,10 +13758,10 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C9">
         <v>10705</v>
@@ -13784,10 +13784,10 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C10">
         <v>10706</v>
@@ -13810,10 +13810,10 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C11">
         <v>10707</v>
@@ -13836,10 +13836,10 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C12">
         <v>10708</v>
@@ -13862,10 +13862,10 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C13">
         <v>10709</v>
@@ -13888,10 +13888,10 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C14">
         <v>10710</v>
@@ -13914,10 +13914,10 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C15">
         <v>10711</v>
@@ -13940,10 +13940,10 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C16">
         <v>10712</v>
@@ -13966,10 +13966,10 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C17">
         <v>10713</v>
@@ -13992,10 +13992,10 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C18">
         <v>10714</v>
@@ -14018,10 +14018,10 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C19">
         <v>10715</v>
@@ -14044,10 +14044,10 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C20">
         <v>10716</v>
@@ -14070,10 +14070,10 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C21">
         <v>10717</v>
@@ -14096,10 +14096,10 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C22">
         <v>10718</v>
@@ -14122,10 +14122,10 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C23">
         <v>10719</v>
@@ -14148,10 +14148,10 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="C24">
         <v>10720</v>
@@ -14174,10 +14174,10 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="C25">
         <v>10721</v>
@@ -14200,10 +14200,10 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C26">
         <v>10722</v>
@@ -14226,10 +14226,10 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C27">
         <v>10723</v>
@@ -14252,10 +14252,10 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C28">
         <v>10724</v>
@@ -14278,10 +14278,10 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C29">
         <v>10725</v>
@@ -14304,10 +14304,10 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C30">
         <v>10726</v>
@@ -14330,10 +14330,10 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C31">
         <v>10727</v>
@@ -14356,10 +14356,10 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C32">
         <v>10728</v>
@@ -14382,10 +14382,10 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C33">
         <v>10729</v>
@@ -14408,10 +14408,10 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C34">
         <v>10730</v>
@@ -14434,10 +14434,10 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C35">
         <v>10731</v>
@@ -14460,10 +14460,10 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C36">
         <v>10732</v>
@@ -14486,10 +14486,10 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C37">
         <v>10733</v>
@@ -14512,10 +14512,10 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C38">
         <v>10735</v>
@@ -14538,10 +14538,10 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C39">
         <v>10737</v>
@@ -14564,10 +14564,10 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C40">
         <v>10738</v>
@@ -14590,10 +14590,10 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C41">
         <v>10739</v>
@@ -14616,10 +14616,10 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C42">
         <v>10740</v>
@@ -14642,10 +14642,10 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C43">
         <v>10742</v>
@@ -14676,8 +14676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14710,10 +14710,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C2">
         <v>10403</v>
@@ -14736,10 +14736,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C3">
         <v>10405</v>
@@ -14762,10 +14762,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C4">
         <v>10406</v>
@@ -14788,10 +14788,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C5">
         <v>10407</v>
@@ -14814,10 +14814,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C6">
         <v>10408</v>
@@ -14840,10 +14840,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7">
         <v>10409</v>
@@ -14866,10 +14866,10 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C8">
         <v>10410</v>
@@ -14892,10 +14892,10 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C9">
         <v>10411</v>
@@ -14918,10 +14918,10 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C10">
         <v>10412</v>
@@ -14944,10 +14944,10 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C11">
         <v>10414</v>
@@ -14970,10 +14970,10 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C12">
         <v>10415</v>
@@ -14996,10 +14996,10 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C13">
         <v>10416</v>
@@ -15022,10 +15022,10 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C14">
         <v>10417</v>
@@ -15048,10 +15048,10 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C15">
         <v>10418</v>
@@ -15074,10 +15074,10 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C16">
         <v>10419</v>
@@ -15100,10 +15100,10 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C17">
         <v>10420</v>
@@ -15126,10 +15126,10 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C18">
         <v>10421</v>
@@ -15152,10 +15152,10 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C19">
         <v>10422</v>
@@ -15178,10 +15178,10 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C20">
         <v>10423</v>
@@ -15204,10 +15204,10 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C21">
         <v>10424</v>
@@ -15230,10 +15230,10 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C22">
         <v>10425</v>
@@ -15256,10 +15256,10 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C23">
         <v>10426</v>
@@ -15282,10 +15282,10 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="C24">
         <v>10427</v>
@@ -15308,10 +15308,10 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="C25">
         <v>10428</v>
@@ -15334,10 +15334,10 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C26">
         <v>10429</v>
@@ -15360,10 +15360,10 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C27">
         <v>10430</v>
@@ -15386,10 +15386,10 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C28">
         <v>10431</v>
@@ -15412,10 +15412,10 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C29">
         <v>10432</v>
@@ -15438,10 +15438,10 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C30">
         <v>10433</v>
@@ -15464,10 +15464,10 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C31">
         <v>10434</v>
@@ -15490,10 +15490,10 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C32">
         <v>10435</v>
@@ -15516,10 +15516,10 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C33">
         <v>10436</v>
@@ -15542,10 +15542,10 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C34">
         <v>10437</v>
@@ -15568,10 +15568,10 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C35">
         <v>10439</v>
@@ -15594,10 +15594,10 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C36">
         <v>10440</v>
@@ -15620,10 +15620,10 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C37">
         <v>10442</v>
@@ -15646,10 +15646,10 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C38">
         <v>10443</v>
@@ -15672,10 +15672,10 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C39">
         <v>10445</v>
@@ -15698,10 +15698,10 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C40">
         <v>10446</v>
@@ -15724,10 +15724,10 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C41">
         <v>10448</v>
@@ -15750,10 +15750,10 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C42">
         <v>10449</v>
@@ -15776,10 +15776,10 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C43">
         <v>10450</v>
@@ -15810,8 +15810,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32:G46"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15844,10 +15844,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C2">
         <v>10610</v>
@@ -15870,10 +15870,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C3">
         <v>10611</v>
@@ -15896,10 +15896,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C4">
         <v>10612</v>
@@ -15922,10 +15922,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C5">
         <v>10613</v>
@@ -15948,10 +15948,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C6">
         <v>10614</v>
@@ -15974,10 +15974,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7">
         <v>10615</v>
@@ -16000,10 +16000,10 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C8">
         <v>10616</v>
@@ -16026,10 +16026,10 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C9">
         <v>10617</v>
@@ -16052,10 +16052,10 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C10">
         <v>10618</v>
@@ -16078,10 +16078,10 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C11">
         <v>10619</v>
@@ -16104,10 +16104,10 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C12">
         <v>10620</v>
@@ -16130,10 +16130,10 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C13">
         <v>10621</v>
@@ -16156,10 +16156,10 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C14">
         <v>10622</v>
@@ -16182,10 +16182,10 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C15">
         <v>10623</v>
@@ -16208,10 +16208,10 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C16">
         <v>10624</v>
@@ -16234,10 +16234,10 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C17">
         <v>10626</v>
@@ -16260,10 +16260,10 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C18">
         <v>10627</v>
@@ -16286,10 +16286,10 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C19">
         <v>10628</v>
@@ -16312,10 +16312,10 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C20">
         <v>10629</v>
@@ -16338,10 +16338,10 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C21">
         <v>10630</v>
@@ -16364,10 +16364,10 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C22">
         <v>10631</v>
@@ -16390,10 +16390,10 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C23">
         <v>10632</v>
@@ -16416,10 +16416,10 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="C24">
         <v>10633</v>
@@ -16442,10 +16442,10 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="C25">
         <v>10634</v>
@@ -16468,10 +16468,10 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C26">
         <v>10635</v>
@@ -16494,10 +16494,10 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C27">
         <v>10636</v>
@@ -16520,10 +16520,10 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C28">
         <v>10637</v>
@@ -16546,10 +16546,10 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C29">
         <v>10639</v>
@@ -16572,10 +16572,10 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C30">
         <v>10640</v>
@@ -16598,10 +16598,10 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C31">
         <v>10641</v>
@@ -16624,10 +16624,10 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C32">
         <v>10642</v>
@@ -16650,10 +16650,10 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C33">
         <v>10643</v>
@@ -16676,10 +16676,10 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C34">
         <v>10644</v>
@@ -16702,10 +16702,10 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C35">
         <v>10645</v>
@@ -16728,10 +16728,10 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C36">
         <v>10646</v>
@@ -16754,10 +16754,10 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C37">
         <v>10647</v>
@@ -16780,10 +16780,10 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C38">
         <v>10648</v>
@@ -16806,10 +16806,10 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C39">
         <v>10649</v>
@@ -16832,10 +16832,10 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C40">
         <v>10650</v>
@@ -16858,10 +16858,10 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C41">
         <v>10651</v>
@@ -16884,10 +16884,10 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C42">
         <v>10652</v>
@@ -16910,10 +16910,10 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C43">
         <v>10653</v>
@@ -16945,7 +16945,7 @@
   <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16978,10 +16978,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C2">
         <v>10829</v>
@@ -17004,10 +17004,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C3">
         <v>10830</v>
@@ -17030,10 +17030,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C4">
         <v>10831</v>
@@ -17056,10 +17056,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C5">
         <v>10832</v>
@@ -17082,10 +17082,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C6">
         <v>10833</v>
@@ -17108,10 +17108,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7">
         <v>10834</v>
@@ -17134,10 +17134,10 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C8">
         <v>10835</v>
@@ -17160,10 +17160,10 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C9">
         <v>10836</v>
@@ -17186,10 +17186,10 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C10">
         <v>10838</v>
@@ -17212,10 +17212,10 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C11">
         <v>10839</v>
@@ -17238,10 +17238,10 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C12">
         <v>10840</v>
@@ -17264,10 +17264,10 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C13">
         <v>10841</v>
@@ -17290,10 +17290,10 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C14">
         <v>10842</v>
@@ -17316,10 +17316,10 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C15">
         <v>10843</v>
@@ -17342,10 +17342,10 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C16">
         <v>10844</v>
@@ -17368,10 +17368,10 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C17">
         <v>10846</v>
@@ -17394,10 +17394,10 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C18">
         <v>10847</v>
@@ -17420,10 +17420,10 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C19">
         <v>10848</v>
@@ -17446,10 +17446,10 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C20">
         <v>10849</v>
@@ -17472,10 +17472,10 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C21">
         <v>10850</v>
@@ -17498,10 +17498,10 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C22">
         <v>10851</v>
@@ -17524,10 +17524,10 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C23">
         <v>10852</v>
@@ -17550,10 +17550,10 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="C24">
         <v>10853</v>
@@ -17576,10 +17576,10 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="C25">
         <v>10854</v>
@@ -17602,10 +17602,10 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C26">
         <v>10855</v>
@@ -17628,10 +17628,10 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C27">
         <v>10856</v>
@@ -17654,10 +17654,10 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C28">
         <v>10858</v>
@@ -17680,10 +17680,10 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C29">
         <v>10859</v>
@@ -17706,10 +17706,10 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C30">
         <v>10860</v>
@@ -17732,10 +17732,10 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C31">
         <v>10861</v>
@@ -17758,10 +17758,10 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C32">
         <v>10862</v>
@@ -17784,10 +17784,10 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C33">
         <v>10863</v>
@@ -17810,10 +17810,10 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C34">
         <v>10864</v>
@@ -17836,10 +17836,10 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C35">
         <v>10865</v>
@@ -17862,10 +17862,10 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C36">
         <v>10866</v>
@@ -17888,10 +17888,10 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C37">
         <v>10867</v>
@@ -17914,10 +17914,10 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C38">
         <v>10868</v>
@@ -17940,10 +17940,10 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C39">
         <v>10869</v>
@@ -17966,10 +17966,10 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C40">
         <v>10870</v>
@@ -17992,10 +17992,10 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C41">
         <v>10871</v>
@@ -18018,10 +18018,10 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C42">
         <v>10872</v>
@@ -18044,10 +18044,10 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C43">
         <v>10873</v>
@@ -18078,8 +18078,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42:B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19155,7 +19155,7 @@
         <v>9</v>
       </c>
       <c r="B42" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="C42">
         <v>10608</v>
@@ -19181,7 +19181,7 @@
         <v>9</v>
       </c>
       <c r="B43" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="C43">
         <v>10609</v>
